--- a/src/Report/KNHExcelMultiTable.xlsx
+++ b/src/Report/KNHExcelMultiTable.xlsx
@@ -1,29 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28523"/>
   <x:workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Platform-ModernDev\source\Prod\Microsoft.Dynamics.Nav.CodeAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\BcCore\Platform\Server\Prod.Ncl\Runtime\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13525EBA-74AF-4DEE-8E74-3DBBBC87BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C047C7D7-11EE-4DA8-AAC2-1AF211845798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4491" yWindow="4491" windowWidth="24686" windowHeight="14598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-71110" yWindow="3060" windowWidth="28800" windowHeight="15320" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
     <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
     <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
     <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Customer" sheetId="5" r:id="R7d349acea6694925"/>
   </x:sheets>
-  <x:calcPr calcId="0"/>
+  <x:definedNames>
+    <x:definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>TemplateColumn</t>
   </si>
@@ -173,6 +211,36 @@
   </si>
   <si>
     <t>CaptionValue</t>
+  </si>
+  <si>
+    <t>Tenant Entra Id</t>
+  </si>
+  <si>
+    <t>Tenant Entra Id Value</t>
+  </si>
+  <si>
+    <t>Company display name</t>
+  </si>
+  <si>
+    <t>Company display name Value</t>
+  </si>
+  <si>
+    <t>Layout name</t>
+  </si>
+  <si>
+    <t>Layout name Value</t>
+  </si>
+  <si>
+    <t>Layout caption</t>
+  </si>
+  <si>
+    <t>Layout caption Value</t>
+  </si>
+  <si>
+    <t>Layout id</t>
+  </si>
+  <si>
+    <t>Layout id Value</t>
   </si>
 </sst>
 </file>
@@ -224,8 +292,8 @@
   <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,91 +437,88 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:K2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:K2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="11">
-    <x:tableColumn id="1" name="No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="Balance" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="Document_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="Document_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="Original_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Remaining_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Customer_Posting_Group" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="Entry_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="Posting_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+<file path=xl/tables/table118.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Customer" displayName="Customer" ref="A1:H2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:H2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="8">
+    <x:tableColumn id="1" name="Document_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="Document_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="Original_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="Remaining_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="Customer_Posting_Group" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="Balance" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}" name="TranslationData" displayName="TranslationData" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8F1461C4-E348-4166-87E9-8D4925AB342B}" name="CaptionKey"/>
-    <tableColumn id="2" xr3:uid="{B1350A6A-8E59-4E2C-AACD-14E037DDCF40}" name="Language"/>
-    <tableColumn id="3" xr3:uid="{8218ECD7-CE7E-4E5C-ACDE-0ADC9D0CE65E}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TranslationData" displayName="TranslationData" ref="A1:C2" totalsRowShown="0" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:C2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}"/>
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="CaptionKey" xr3:uid="{8F1461C4-E348-4166-87E9-8D4925AB342B}"/>
+    <x:tableColumn id="2" name="Language" xr3:uid="{B1350A6A-8E59-4E2C-AACD-14E037DDCF40}"/>
+    <x:tableColumn id="3" name="Value" xr3:uid="{8218ECD7-CE7E-4E5C-ACDE-0ADC9D0CE65E}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}" name="CaptionData" displayName="CaptionData" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9C04E6DA-1D54-48CA-A030-6BAD61CB0617}" name="Caption"/>
-    <tableColumn id="2" xr3:uid="{89582DF0-EB9B-41CD-8C22-DFBA8F8BD440}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CaptionData" displayName="CaptionData" ref="A1:B2" totalsRowShown="0" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:B2" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Caption" xr3:uid="{9C04E6DA-1D54-48CA-A030-6BAD61CB0617}"/>
+    <x:tableColumn id="2" name="Value" xr3:uid="{89582DF0-EB9B-41CD-8C22-DFBA8F8BD440}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}" name="Report Property"/>
-    <tableColumn id="2" xr3:uid="{920E2177-8B70-4968-B161-4C2CF0A824C6}" name="Report Property Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Report Property" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}"/>
+    <x:tableColumn id="2" name="Report Property Value" xr3:uid="{920E2177-8B70-4968-B161-4C2CF0A824C6}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}" name="Request Property"/>
-    <tableColumn id="2" xr3:uid="{FA31CE16-2D0E-4E4D-BC19-2B03E00E4B08}" name="Request Property Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E15" totalsRowShown="0" headerRowDxfId="2" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="D1:E15" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Request Property" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}"/>
+    <x:tableColumn id="2" name="Request Property Value" xr3:uid="{FA31CE16-2D0E-4E4D-BC19-2B03E00E4B08}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{023648B2-C225-4580-B767-C48467418032}" name="Request Page Option"/>
-    <tableColumn id="2" xr3:uid="{BBB51944-3368-483F-9ECA-E66C489A7E1A}" name="Request Page Option Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Request Page Option" xr3:uid="{023648B2-C225-4580-B767-C48467418032}"/>
+    <x:tableColumn id="2" name="Request Page Option Value" xr3:uid="{BBB51944-3368-483F-9ECA-E66C489A7E1A}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}" name="Filter"/>
-    <tableColumn id="2" xr3:uid="{F291234F-EE76-4AF1-A03D-6D3FB6737920}" name="Filter Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Filter" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}"/>
+    <x:tableColumn id="2" name="Filter Value" xr3:uid="{F291234F-EE76-4AF1-A03D-6D3FB6737920}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,87 +816,63 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:A2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft"/>
-    </x:sheetView>
-  </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="18.3828125" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row>
       <x:c r="A1" t="str">
+        <x:v>Document_Type</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>Document_Date</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>Original_Amount</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>Remaining_Amount</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>Customer_Posting_Group</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="B1" t="str">
+      <x:c r="G1" t="str">
         <x:v>Name</x:v>
       </x:c>
-      <x:c r="C1" t="str">
+      <x:c r="H1" t="str">
         <x:v>Balance</x:v>
-      </x:c>
-      <x:c r="D1" t="str">
-        <x:v>Document_Type</x:v>
-      </x:c>
-      <x:c r="E1" t="str">
-        <x:v>Document_Date</x:v>
-      </x:c>
-      <x:c r="F1" t="str">
-        <x:v>Original_Amount</x:v>
-      </x:c>
-      <x:c r="G1" t="str">
-        <x:v>Remaining_Amount</x:v>
-      </x:c>
-      <x:c r="H1" t="str">
-        <x:v>Customer_Posting_Group</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>Entry_Type</x:v>
-      </x:c>
-      <x:c r="J1" t="str">
-        <x:v>Posting_Date</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>Amount</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c r="A2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="B2" t="str">
+      <x:c r="B2" s="2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="E2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="C2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="D2" t="str">
+      <x:c r="F2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="E2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="G2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="H2" t="str">
+      <x:c r="G2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="I2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K2" s="2" t="n">
+      <x:c r="H2" s="3" t="n">
         <x:v>0.0</x:v>
       </x:c>
     </x:row>
@@ -854,7 +895,7 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -887,7 +928,7 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -916,10 +957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D37DBB-4AC2-46F2-B64A-5C237CE209EB}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -971,10 +1012,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -997,10 +1038,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -1011,10 +1052,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -1025,10 +1066,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1039,10 +1080,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1053,10 +1094,10 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1067,10 +1108,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1081,10 +1122,10 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1095,10 +1136,50 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
